--- a/Test-cases.xlsx
+++ b/Test-cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -45,126 +45,9 @@
     <t>No run</t>
   </si>
   <si>
-    <t>Registration with invalid email</t>
-  </si>
-  <si>
     <t xml:space="preserve">Open site https://telnyx.com/ </t>
   </si>
   <si>
-    <t>Click on "Sign up" button</t>
-  </si>
-  <si>
-    <t>Click on 'Create Account'</t>
-  </si>
-  <si>
-    <t>Enter valid data in all fields without Email field</t>
-  </si>
-  <si>
-    <t>Enter ivalid data in Email field</t>
-  </si>
-  <si>
-    <t>Accept all checkboxes</t>
-  </si>
-  <si>
-    <t>Notofication under work email field about invalid email address.</t>
-  </si>
-  <si>
-    <t>Scroll down to "Sociall media buttons"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on LinkedIn </t>
-  </si>
-  <si>
-    <t>Sociall media buttons</t>
-  </si>
-  <si>
-    <t>Button sociall media (LinkedIn)</t>
-  </si>
-  <si>
-    <t>Campaign page on LinkedIn</t>
-  </si>
-  <si>
-    <t>Click on Twitter</t>
-  </si>
-  <si>
-    <t>Campaign page on Twitter</t>
-  </si>
-  <si>
-    <t>Button sociall media (Twitter)</t>
-  </si>
-  <si>
-    <t>Button sociall media (Facebook)</t>
-  </si>
-  <si>
-    <t>Click on Facebook</t>
-  </si>
-  <si>
-    <t>Campaign page on Facebook</t>
-  </si>
-  <si>
-    <t>Creating a video room</t>
-  </si>
-  <si>
-    <t>Click on "Video Rooms"</t>
-  </si>
-  <si>
-    <t>Click on create Video Room</t>
-  </si>
-  <si>
-    <t>Notification about successful room creation operation</t>
-  </si>
-  <si>
-    <t>Go to the Video Rooms section</t>
-  </si>
-  <si>
-    <t>Video Rooms</t>
-  </si>
-  <si>
-    <t>Removing video rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open site https://telnyx.com/  </t>
-  </si>
-  <si>
-    <t>Log in with an activated account</t>
-  </si>
-  <si>
-    <t>The room we created is displayed under Room Name</t>
-  </si>
-  <si>
-    <t>Create a new video room</t>
-  </si>
-  <si>
-    <t>Make sure that the created room is displayed in the list</t>
-  </si>
-  <si>
-    <t>Click on the basket(Delete button)</t>
-  </si>
-  <si>
-    <t>Click on Delete</t>
-  </si>
-  <si>
-    <t>Notification of successful deletion</t>
-  </si>
-  <si>
-    <t>Click on the numbers in the platform section</t>
-  </si>
-  <si>
-    <t>Click Toll-Free Numbers</t>
-  </si>
-  <si>
-    <t>Click Search Numbers</t>
-  </si>
-  <si>
-    <t>The numbers in the list are displayed</t>
-  </si>
-  <si>
-    <t>Numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search for free numbers </t>
-  </si>
-  <si>
     <t>Log in with valid credentials</t>
   </si>
   <si>
@@ -180,40 +63,166 @@
     <t>Click on "Log in" button</t>
   </si>
   <si>
-    <t>Next click "Try the Demo Appi"</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>API Keys</t>
-  </si>
-  <si>
-    <t>Adding API Kyes</t>
-  </si>
-  <si>
-    <t>Click on the API Keys in the platform section</t>
-  </si>
-  <si>
-    <t>Click Create API Key</t>
-  </si>
-  <si>
-    <t>One more click Create</t>
-  </si>
-  <si>
-    <t>The created API key is displayed in the list</t>
-  </si>
-  <si>
-    <t>Deleted API Keys</t>
-  </si>
-  <si>
-    <t>Execute test-case 5.1</t>
-  </si>
-  <si>
-    <t>Click on  basket (Delete)</t>
-  </si>
-  <si>
-    <t>Click delete</t>
+    <t>Log in with incorrect Email</t>
+  </si>
+  <si>
+    <t>Enter invalid data in Business Email input</t>
+  </si>
+  <si>
+    <t>Enter valid data in password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notifications about incorect  comvination email and password combination </t>
+  </si>
+  <si>
+    <t>Log in with incorrect password</t>
+  </si>
+  <si>
+    <t>Enter valid data in Business Email input</t>
+  </si>
+  <si>
+    <t>Enter invalid data in password field</t>
+  </si>
+  <si>
+    <t>Log in with remember me checkbox</t>
+  </si>
+  <si>
+    <t>Click on remember me checkbox</t>
+  </si>
+  <si>
+    <t>Hover over the avatar and click "Sign out"</t>
+  </si>
+  <si>
+    <t>Fields have data</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Try for free suite</t>
+  </si>
+  <si>
+    <t>Try for free with out '@'</t>
+  </si>
+  <si>
+    <t>Go to Try fo free sections</t>
+  </si>
+  <si>
+    <t>In field print emailm without '@'</t>
+  </si>
+  <si>
+    <t>Click on try for free</t>
+  </si>
+  <si>
+    <t>Empty try for free</t>
+  </si>
+  <si>
+    <t>Try for free with out '.'</t>
+  </si>
+  <si>
+    <t>In field print email without '.'</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>Geolocation on google maps</t>
+  </si>
+  <si>
+    <t>Scroll page to Company section</t>
+  </si>
+  <si>
+    <t>Click on 'About us'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Where we are section </t>
+  </si>
+  <si>
+    <t>Under each city click 'Locate on Google Maps'</t>
+  </si>
+  <si>
+    <t>Notification of incorrectly completed form</t>
+  </si>
+  <si>
+    <t>Developer Docs</t>
+  </si>
+  <si>
+    <t>Scroll page to Resourses section</t>
+  </si>
+  <si>
+    <t>Click on 'Developer Docs'</t>
+  </si>
+  <si>
+    <t>New page about Telnyx Developers is opened</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Click on 'Blog'</t>
+  </si>
+  <si>
+    <t>New page about Telnyx Blog is opened</t>
+  </si>
+  <si>
+    <t>Resource Hub</t>
+  </si>
+  <si>
+    <t>Click on 'Resourse hub'</t>
+  </si>
+  <si>
+    <t>New page about Telnyx Resouese hub is opened</t>
+  </si>
+  <si>
+    <t>Release Notes</t>
+  </si>
+  <si>
+    <t>Click on 'Release Notes'</t>
+  </si>
+  <si>
+    <t>New page about Telnyx Release Notes is opened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google maps about Geolocation is opened </t>
+  </si>
+  <si>
+    <t>Resourses(with Log in in profile)</t>
+  </si>
+  <si>
+    <t>Log in profile</t>
+  </si>
+  <si>
+    <t>Support center</t>
+  </si>
+  <si>
+    <t>Click Support Center on Resourses section</t>
+  </si>
+  <si>
+    <t>New page about Support Center is opened</t>
+  </si>
+  <si>
+    <t>Click Developer Docs on Resourses section</t>
+  </si>
+  <si>
+    <t>Click Release Notes on Resourses section</t>
+  </si>
+  <si>
+    <t>New page about Release Notes is opened</t>
+  </si>
+  <si>
+    <t>System status</t>
+  </si>
+  <si>
+    <t>Click System status on Resourses section</t>
+  </si>
+  <si>
+    <t>New page about System status is opened</t>
+  </si>
+  <si>
+    <t>Resourses(without Log in profile)</t>
   </si>
 </sst>
 </file>
@@ -223,7 +232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +255,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -340,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -362,10 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -381,6 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -686,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,11 +742,11 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>8</v>
@@ -745,13 +758,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
@@ -768,10 +781,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -785,401 +798,524 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
+      <c r="A7" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="21"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>2</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="D21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
         <v>2.1</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="D18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="D21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
-        <v>3.1</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="22"/>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>3.1</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>4</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>3.2</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
-        <v>4</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="24" t="s">
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="B58" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="24"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="24" t="s">
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
-        <v>5.2</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="24" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="24" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="E49" t="s">
-        <v>42</v>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
